--- a/biology/Médecine/Actinomycose/Actinomycose.xlsx
+++ b/biology/Médecine/Actinomycose/Actinomycose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une actinomycose est une infection, causée par une bactérie anaérobie (un actinomycète) : Actinomyces israelii, on la trouve à l'état non pathologique dans la cavité buccale ou la cavité nasale. L'actinomycose peut se présenter comme une « pseudo-tumeur » inflammatoire localisée dans un tissu sous-cutané, généralement le visage ou le cou. Il existe cependant d'autres formes, souvent plus graves, pulmonaires, abdominales ou cérébrales. La maladie se développe souvent à la suite d'un traumatisme buccal, notamment tel qu'un abcès dentaire, une chirurgie dentaire. Elle n'est pas contagieuse.
 </t>
@@ -511,9 +523,11 @@
           <t>Signes et symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maladie est caractérisée par la formation d'abcès très douloureux localisé dans la bouche, les poumons[1],[2] ou dans l'appareil digestif humain. Les abcès d'actinomycose s'élargissent au fur et à mesure que la maladie progresse, souvent pendant des mois. Dans de sévères mesures, ils pénètrent dans les os ou les muscles et se rompent ensuite pour libérer du pus.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie est caractérisée par la formation d'abcès très douloureux localisé dans la bouche, les poumons, ou dans l'appareil digestif humain. Les abcès d'actinomycose s'élargissent au fur et à mesure que la maladie progresse, souvent pendant des mois. Dans de sévères mesures, ils pénètrent dans les os ou les muscles et se rompent ensuite pour libérer du pus.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les actinomyces (bactéries responsable de la maladie) sont généralement sensibles à l'injection de pénicilline, habituellement utilisé pour traiter l'actinomycose. Lors d'allergie à la pénicilline, la doxycycline est utilisée. Les sulfonamides tels que le sulfaméthoxazole peuvent être utilisés comme remèdes alternatifs à la dose quotidienne de 2-4 grammes. La réponse au traitement est lente et peut prendre plusieurs mois.
 </t>
